--- a/data/ProjectsList.xlsx
+++ b/data/ProjectsList.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>The Dream Team</t>
   </si>
@@ -68,19 +68,12 @@
   </si>
   <si>
     <t>6</t>
-  </si>
-  <si>
-    <t>newProject</t>
-  </si>
-  <si>
-    <t>New Project Description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -124,7 +117,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -140,9 +133,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -180,9 +173,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -217,7 +210,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -252,7 +245,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -426,18 +419,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" style="1" width="8.7265625" collapsed="true"/>
+    <col min="1" max="1" width="8.77734375" style="1" collapsed="1"/>
+    <col min="2" max="2" width="15.88671875" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.77734375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -448,7 +444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -459,7 +455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -470,7 +466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -481,7 +477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -492,7 +488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -501,50 +497,6 @@
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/data/ProjectsList.xlsx
+++ b/data/ProjectsList.xlsx
@@ -16,42 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
-    <t>The Dream Team</t>
-  </si>
-  <si>
-    <t>the Dream Team description</t>
-  </si>
-  <si>
-    <t>Guardians of the Galaxy</t>
-  </si>
-  <si>
-    <t>Guardians of the Galaxy (retroactively referred to as Guardians of the Galaxy Vol. 1) is a 2014 American superhero film based on the Marvel Comics superhero team of the same name, produced by Marvel Studios and distributed by Walt Disney Studios Motion Pictures. It is the tenth film in the Marvel Cinematic Universe (MCU).</t>
-  </si>
-  <si>
-    <t>Infinity War</t>
-  </si>
-  <si>
-    <t>Avengers: Infinity War is a 2018 American superhero film based on the Marvel Comics superhero team the Avengers, produced by Marvel Studios and distributed by Walt Disney Studios Motion Pictures. It is the sequel to 2012 The Avengers and 2015 Avengers: Age of Ultron, and the nineteenth film in the Marvel Cinematic Universe (MCU).</t>
-  </si>
-  <si>
-    <t>Ragnarok</t>
-  </si>
-  <si>
-    <t>Thor: Ragnarok is a 2017 American superhero film based on the Marvel Comics character Thor, produced by Marvel Studios and distributed by Walt Disney Studios Motion Pictures. It is the sequel to 2011 Thor and 2013 Thor: The Dark World, and is the seventeenth film in the Marvel Cinematic Universe (MCU).</t>
-  </si>
-  <si>
-    <t>Venom</t>
-  </si>
-  <si>
-    <t>Venom is a 2018 American superhero film based on the Marvel Comics character of the same name, produced by Columbia Pictures in association with Marvel and Tencent Pictures. Distributed by Sony Pictures Releasing, it is the first film in Sony's Marvel Universe, adjunct to the Marvel Cinematic Universe (MCU).</t>
-  </si>
-  <si>
-    <t>HeroesMix</t>
-  </si>
-  <si>
-    <t>Ungrouped characters. Saving world from time to time.</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -68,6 +32,42 @@
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>"The Dream Team"</t>
+  </si>
+  <si>
+    <t>"Guardians of the Galaxy"</t>
+  </si>
+  <si>
+    <t>"Infinity War"</t>
+  </si>
+  <si>
+    <t>"Ragnarok"</t>
+  </si>
+  <si>
+    <t>"Venom"</t>
+  </si>
+  <si>
+    <t>"HeroesMix"</t>
+  </si>
+  <si>
+    <t>"the Dream Team description"</t>
+  </si>
+  <si>
+    <t>"Guardians of the Galaxy (retroactively referred to as Guardians of the Galaxy Vol. 1) is a 2014 American superhero film based on the Marvel Comics superhero team of the same name, produced by Marvel Studios and distributed by Walt Disney Studios Motion Pictures. It is the tenth film in the Marvel Cinematic Universe (MCU)."</t>
+  </si>
+  <si>
+    <t>"Avengers: Infinity War is a 2018 American superhero film based on the Marvel Comics superhero team the Avengers, produced by Marvel Studios and distributed by Walt Disney Studios Motion Pictures. It is the sequel to 2012 The Avengers and 2015 Avengers: Age of Ultron, and the nineteenth film in the Marvel Cinematic Universe (MCU)."</t>
+  </si>
+  <si>
+    <t>"Thor: Ragnarok is a 2017 American superhero film based on the Marvel Comics character Thor, produced by Marvel Studios and distributed by Walt Disney Studios Motion Pictures. It is the sequel to 2011 Thor and 2013 Thor: The Dark World, and is the seventeenth film in the Marvel Cinematic Universe (MCU)."</t>
+  </si>
+  <si>
+    <t>"Venom is a 2018 American superhero film based on the Marvel Comics character of the same name, produced by Columbia Pictures in association with Marvel and Tencent Pictures. Distributed by Sony Pictures Releasing, it is the first film in Sony's Marvel Universe, adjunct to the Marvel Cinematic Universe (MCU)."</t>
+  </si>
+  <si>
+    <t>"Ungrouped characters. Saving world from time to time."</t>
   </si>
 </sst>
 </file>
@@ -422,81 +422,81 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.77734375" style="1" collapsed="1"/>
-    <col min="2" max="2" width="15.88671875" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5546875" style="1" customWidth="1" collapsed="1"/>
     <col min="4" max="16384" width="8.77734375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/ProjectsList.xlsx
+++ b/data/ProjectsList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="38">
   <si>
     <t>1</t>
   </si>
@@ -68,12 +68,73 @@
   </si>
   <si>
     <t>"Ungrouped characters. Saving world from time to time."</t>
+  </si>
+  <si>
+    <t>"The</t>
+  </si>
+  <si>
+    <t>Dream</t>
+  </si>
+  <si>
+    <t>"Guardians</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>"Infinity</t>
+  </si>
+  <si>
+    <t>War"</t>
+  </si>
+  <si>
+    <t>"Thor:</t>
+  </si>
+  <si>
+    <t>"Venom</t>
+  </si>
+  <si>
+    <t>"Ungrouped</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>HelloWorld</t>
+  </si>
+  <si>
+    <t>First line</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -419,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
@@ -427,76 +488,164 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="1" collapsed="1"/>
-    <col min="2" max="2" width="25.33203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.77734375" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="8.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="25.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="16.5546875" collapsed="true"/>
+    <col min="4" max="16384" style="1" width="8.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/data/ProjectsList.xlsx
+++ b/data/ProjectsList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="42">
   <si>
     <t>1</t>
   </si>
@@ -128,6 +128,18 @@
   </si>
   <si>
     <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
 </sst>
 </file>
@@ -480,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
@@ -645,6 +657,50 @@
         <v>28</v>
       </c>
       <c r="C14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>

--- a/data/ProjectsList.xlsx
+++ b/data/ProjectsList.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>1</t>
   </si>
@@ -34,132 +34,50 @@
     <t>6</t>
   </si>
   <si>
-    <t>"The Dream Team"</t>
-  </si>
-  <si>
-    <t>"Guardians of the Galaxy"</t>
-  </si>
-  <si>
-    <t>"Infinity War"</t>
-  </si>
-  <si>
-    <t>"Ragnarok"</t>
-  </si>
-  <si>
-    <t>"Venom"</t>
-  </si>
-  <si>
-    <t>"HeroesMix"</t>
-  </si>
-  <si>
-    <t>"the Dream Team description"</t>
-  </si>
-  <si>
-    <t>"Guardians of the Galaxy (retroactively referred to as Guardians of the Galaxy Vol. 1) is a 2014 American superhero film based on the Marvel Comics superhero team of the same name, produced by Marvel Studios and distributed by Walt Disney Studios Motion Pictures. It is the tenth film in the Marvel Cinematic Universe (MCU)."</t>
-  </si>
-  <si>
-    <t>"Avengers: Infinity War is a 2018 American superhero film based on the Marvel Comics superhero team the Avengers, produced by Marvel Studios and distributed by Walt Disney Studios Motion Pictures. It is the sequel to 2012 The Avengers and 2015 Avengers: Age of Ultron, and the nineteenth film in the Marvel Cinematic Universe (MCU)."</t>
-  </si>
-  <si>
-    <t>"Thor: Ragnarok is a 2017 American superhero film based on the Marvel Comics character Thor, produced by Marvel Studios and distributed by Walt Disney Studios Motion Pictures. It is the sequel to 2011 Thor and 2013 Thor: The Dark World, and is the seventeenth film in the Marvel Cinematic Universe (MCU)."</t>
-  </si>
-  <si>
-    <t>"Venom is a 2018 American superhero film based on the Marvel Comics character of the same name, produced by Columbia Pictures in association with Marvel and Tencent Pictures. Distributed by Sony Pictures Releasing, it is the first film in Sony's Marvel Universe, adjunct to the Marvel Cinematic Universe (MCU)."</t>
-  </si>
-  <si>
-    <t>"Ungrouped characters. Saving world from time to time."</t>
-  </si>
-  <si>
-    <t>"The</t>
-  </si>
-  <si>
     <t>Dream</t>
   </si>
   <si>
-    <t>"Guardians</t>
-  </si>
-  <si>
     <t>of</t>
   </si>
   <si>
-    <t>"Infinity</t>
-  </si>
-  <si>
-    <t>War"</t>
-  </si>
-  <si>
-    <t>"Thor:</t>
-  </si>
-  <si>
-    <t>"Venom</t>
-  </si>
-  <si>
-    <t>"Ungrouped</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>HelloWorld</t>
-  </si>
-  <si>
-    <t>First line</t>
-  </si>
-  <si>
-    <t>First</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
+    <t>The</t>
+  </si>
+  <si>
+    <t>Guardians</t>
+  </si>
+  <si>
+    <t>Infinity</t>
+  </si>
+  <si>
+    <t>Venom</t>
+  </si>
+  <si>
+    <t>Ragnarok</t>
+  </si>
+  <si>
+    <t>HeroesMix</t>
+  </si>
+  <si>
+    <t>War</t>
+  </si>
+  <si>
+    <t>Thor</t>
+  </si>
+  <si>
+    <t>Ungrouped</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -182,15 +100,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -206,9 +121,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -246,9 +161,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -283,7 +198,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,7 +233,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -492,216 +407,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="1" width="8.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="25.33203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="16.5546875" collapsed="true"/>
-    <col min="4" max="16384" style="1" width="8.77734375" collapsed="true"/>
+    <col min="1" max="1" width="8.81640625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="25.36328125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.81640625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/ProjectsList.xlsx
+++ b/data/ProjectsList.xlsx
@@ -1,76 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9EE947-573E-49EE-B7F6-8854978E9727}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet0" r:id="rId5" sheetId="2"/>
+    <sheet name="Sheet2" r:id="rId6" sheetId="3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="4">
   <si>
-    <t>1</t>
+    <t>ID</t>
   </si>
   <si>
-    <t>2</t>
+    <t>Project Name</t>
   </si>
   <si>
-    <t>3</t>
+    <t>Description</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Dream</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>The</t>
-  </si>
-  <si>
-    <t>Guardians</t>
-  </si>
-  <si>
-    <t>Infinity</t>
-  </si>
-  <si>
-    <t>Venom</t>
-  </si>
-  <si>
-    <t>Ragnarok</t>
-  </si>
-  <si>
-    <t>HeroesMix</t>
-  </si>
-  <si>
-    <t>War</t>
-  </si>
-  <si>
-    <t>Thor</t>
-  </si>
-  <si>
-    <t>Ungrouped</t>
+    <t>0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -196,6 +161,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -231,6 +213,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -406,89 +405,163 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="25.36328125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.54296875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="8.81640625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="8.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="25.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="16.5546875" collapsed="true"/>
+    <col min="4" max="16384" style="1" width="8.77734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1"/>
+      <c r="B1"/>
+      <c r="C1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5"/>
+      <c r="C5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>